--- a/data/trans_bre/P6905-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6905-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>40,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>593,24%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 12,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 30,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 49,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,61; 73,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,28; 55,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,3; 297,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,38; 386,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 10812,99</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,51%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,12; 29,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 24,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,98; 27,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 17,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,95; 114,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,24; 103,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,61; 128,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,33; 104,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,82; 22,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 40,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; 20,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; 21,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,32; 80,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 268,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,52; 78,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,33; 88,6</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 19,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,03; 23,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,64; 23,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,15; 18,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 71,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,75; 103,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,06; 97,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,74; 101,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,45</t>
+          <t>35,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>593,24%</t>
+          <t>371,4%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,61; 73,08</t>
+          <t>8,05; 66,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10812,99</t>
+          <t>-19,29; 9328,23</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,73</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>31,67%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 17,51</t>
+          <t>-5,97; 15,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 104,75</t>
+          <t>-22,04; 82,37</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 21,18</t>
+          <t>-11,89; 21,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 88,6</t>
+          <t>-24,79; 89,9</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>54,65%</t>
+          <t>40,98%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 18,99</t>
+          <t>-0,62; 16,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 101,92</t>
+          <t>-1,87; 86,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 12,78</t>
+          <t>-19,72; 12,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 30,13</t>
+          <t>-4,78; 30,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 49,56</t>
+          <t>-0,9; 50,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 66,23</t>
+          <t>10,72; 65,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,28; 55,5</t>
+          <t>-63,12; 57,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 297,88</t>
+          <t>-25,72; 296,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 386,75</t>
+          <t>-4,15; 380,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 9328,23</t>
+          <t>-67,08; 7532,28</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 29,07</t>
+          <t>6,55; 29,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 24,65</t>
+          <t>1,78; 24,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 27,68</t>
+          <t>7,34; 28,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 15,02</t>
+          <t>-6,28; 15,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 114,78</t>
+          <t>20,07; 117,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 103,6</t>
+          <t>6,96; 101,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,61; 128,37</t>
+          <t>22,96; 126,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 82,37</t>
+          <t>-23,09; 88,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 22,22</t>
+          <t>-13,62; 20,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 40,85</t>
+          <t>-0,32; 40,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 20,04</t>
+          <t>-14,83; 19,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 21,57</t>
+          <t>-10,01; 22,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 80,78</t>
+          <t>-31,28; 79,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 268,47</t>
+          <t>-2,55; 278,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 78,41</t>
+          <t>-33,66; 75,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 89,9</t>
+          <t>-24,14; 93,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 19,26</t>
+          <t>3,36; 18,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 23,85</t>
+          <t>6,22; 23,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 23,04</t>
+          <t>6,42; 22,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 16,74</t>
+          <t>-1,12; 16,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 71,01</t>
+          <t>10,35; 70,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,75; 103,54</t>
+          <t>21,32; 102,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,06; 97,49</t>
+          <t>20,72; 94,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 86,89</t>
+          <t>-2,23; 87,4</t>
         </is>
       </c>
     </row>
